--- a/docs/ValueSet-ValueSet-estimate-of-gestation-edit-flags.xlsx
+++ b/docs/ValueSet-ValueSet-estimate-of-gestation-edit-flags.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Birth and Death " r:id="rId4" sheetId="2"/>
-    <sheet name="Include from CodeSystem - Bir" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Birth Edit Flags" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ValueSet - Estimate of Gestation Edit Flags (NCHS)</t>
+    <t>Estimate of Gestation Edit Flags (NCHS)</t>
   </si>
   <si>
     <t>Status</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ValueSet-estimate-of-gestation-edit-flags.xlsx
+++ b/docs/ValueSet-ValueSet-estimate-of-gestation-edit-flags.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ValueSet-estimate-of-gestation-edit-flags.xlsx
+++ b/docs/ValueSet-ValueSet-estimate-of-gestation-edit-flags.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
